--- a/src/analysis_examples/circadb/results_lomb/cosinor_10357191_ptpn4_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10357191_ptpn4_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.277615646601024, 0.37001510593433473]</t>
+          <t>[0.27750055024807363, 0.3701302022872851]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.867839216629363e-12</v>
+        <v>1.959099549253551e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>1.867839216629363e-12</v>
+        <v>1.959099549253551e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6289474781961548</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3982525686885604, 0.4462670451131997]</t>
+          <t>[0.39826412525754007, 0.44625548854422004]</t>
         </is>
       </c>
       <c r="U2" t="n">
